--- a/SO SACH/2016 - 2018/2017/BAO CAO - NH/131 - 331 - NXT.xlsx
+++ b/SO SACH/2016 - 2018/2017/BAO CAO - NH/131 - 331 - NXT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1035" windowWidth="14820" windowHeight="7785" tabRatio="894"/>
+    <workbookView xWindow="0" yWindow="1035" windowWidth="14820" windowHeight="7785" tabRatio="894" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="331" sheetId="12" r:id="rId1"/>
@@ -84,8 +84,10 @@
     <definedName name="Loai9">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
     <definedName name="MH">#REF!</definedName>
     <definedName name="NXT">NXT!$A$12:$A$420</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'331'!$A$1:$H$73</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">NXT!$A$52:$L$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'331'!$A$1:$H$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">NXT!$A$1:$L$105</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'331'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">NXT!$8:$11</definedName>
     <definedName name="SL">#REF!</definedName>
     <definedName name="TH">#REF!</definedName>
     <definedName name="TM">#REF!</definedName>
@@ -778,7 +780,7 @@
     <numFmt numFmtId="169" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="170" formatCode="#,###"/>
     <numFmt numFmtId="171" formatCode="&quot;Ngày&quot;\ dd&quot; tháng&quot;\ mm&quot; năm&quot;\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1679,7 +1681,7 @@
     <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="33" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1794,76 +1796,76 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="23" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="22" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="17" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="22" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="89" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="23" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="22" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="17" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="22" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="92">
@@ -2265,10 +2267,10 @@
   </sheetPr>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P41" sqref="P41"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
@@ -2280,40 +2282,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="76" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="76" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="77"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="71" t="s">
         <v>11</v>
       </c>
@@ -4354,9 +4356,9 @@
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
       <c r="I74" s="39"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="87"/>
+      <c r="J74" s="75"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="75"/>
     </row>
     <row r="75" spans="1:12" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="C75" s="72"/>
@@ -4370,11 +4372,11 @@
       </c>
       <c r="D76" s="72"/>
       <c r="E76" s="72"/>
-      <c r="F76" s="87" t="s">
+      <c r="F76" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
     </row>
     <row r="77" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="B77" s="72" t="s">
@@ -4382,19 +4384,19 @@
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="38"/>
-      <c r="F77" s="86" t="s">
+      <c r="F77" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="86"/>
-      <c r="H77" s="86"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
       <c r="I77" s="27"/>
     </row>
     <row r="78" spans="1:12" ht="15">
-      <c r="F78" s="86" t="s">
+      <c r="F78" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
     </row>
   </sheetData>
   <sortState ref="A5:J37">
@@ -4413,7 +4415,8 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.8" right="0.2" top="0.3" bottom="0.3" header="0.1" footer="0.1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.8" right="0.2" top="0.05" bottom="0.05" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4426,46 +4429,46 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="41" customWidth="1"/>
     <col min="2" max="2" width="34" style="41" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14" style="42" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="42" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="15" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17" style="42" customWidth="1"/>
+    <col min="9" max="9" width="14" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14" style="42" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="42" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="42" customWidth="1"/>
     <col min="15" max="16384" width="8" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="85" t="s">
@@ -5709,18 +5712,18 @@
         <v>2311182720</v>
       </c>
       <c r="I28" s="46">
-        <v>0</v>
+        <v>5274.74</v>
       </c>
       <c r="J28" s="45">
-        <v>0</v>
+        <v>119736598</v>
       </c>
       <c r="K28" s="44">
         <f t="shared" ref="K28:K30" si="74">ROUND(MAX(C28+G28-E28-I28,0),2)</f>
-        <v>101904</v>
+        <v>96629.26</v>
       </c>
       <c r="L28" s="20">
         <f t="shared" ref="L28:L30" si="75">ROUND(MAX(D28+H28-F28-J28,0),0)</f>
-        <v>2311182720</v>
+        <v>2191446122</v>
       </c>
       <c r="M28" s="44">
         <f t="shared" ref="M28:M30" si="76">ROUND(MAX(E28+I28-C28-G28,0),2)</f>
@@ -5792,12 +5795,8 @@
       <c r="H30" s="45">
         <v>0</v>
       </c>
-      <c r="I30" s="46">
-        <v>5274.74</v>
-      </c>
-      <c r="J30" s="45">
-        <v>119736598</v>
-      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="44">
         <f t="shared" si="74"/>
         <v>0</v>
@@ -5808,11 +5807,11 @@
       </c>
       <c r="M30" s="44">
         <f t="shared" si="76"/>
-        <v>5274.74</v>
+        <v>0</v>
       </c>
       <c r="N30" s="20">
         <f t="shared" si="77"/>
-        <v>119736598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
@@ -5873,19 +5872,19 @@
       </c>
       <c r="K32" s="43">
         <f t="shared" si="78"/>
-        <v>1157711.68</v>
+        <v>1152436.94</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" si="78"/>
-        <v>26111099937</v>
+        <v>25991363339</v>
       </c>
       <c r="M32" s="43">
         <f t="shared" si="78"/>
-        <v>5274.74</v>
+        <v>0</v>
       </c>
       <c r="N32" s="67">
         <f t="shared" si="78"/>
-        <v>119736598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:12" s="25" customFormat="1" ht="21.75" customHeight="1">
@@ -5897,20 +5896,20 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="2:12" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="87" t="s">
+      <c r="J34" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="2:12" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="B35" s="72" t="s">
@@ -5918,14 +5917,14 @@
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="72"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="J35" s="86" t="s">
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="J35" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="2:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="72" t="s">
@@ -5933,15 +5932,15 @@
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="86" t="s">
+      <c r="J36" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
     </row>
     <row r="37" spans="2:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="D37" s="26"/>
@@ -5971,12 +5970,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J36:L36"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -5986,8 +5979,15 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="J36:L36"/>
   </mergeCells>
-  <pageMargins left="0.16" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -6000,8 +6000,8 @@
   </sheetPr>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6030,13 +6030,13 @@
       <c r="E1" s="64"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
     </row>
     <row r="2" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="65" t="s">
@@ -6047,13 +6047,13 @@
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="58"/>
@@ -6062,118 +6062,118 @@
       <c r="E3" s="58"/>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1" ht="15">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1" ht="15" hidden="1">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12" s="24" customFormat="1" ht="27.75" hidden="1">
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
     </row>
     <row r="8" spans="1:12" s="25" customFormat="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
     </row>
     <row r="9" spans="1:12" s="25" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94" t="s">
+      <c r="H9" s="96"/>
+      <c r="I9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94" t="s">
+      <c r="J9" s="96"/>
+      <c r="K9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="94"/>
+      <c r="L9" s="96"/>
     </row>
     <row r="10" spans="1:12" s="25" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="60"/>
       <c r="E10" s="61" t="s">
         <v>33</v>
@@ -9877,22 +9877,22 @@
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
       <c r="I102" s="39"/>
-      <c r="J102" s="87" t="s">
+      <c r="J102" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="K102" s="87"/>
-      <c r="L102" s="87"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="75"/>
     </row>
     <row r="103" spans="1:12" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="C103" s="62"/>
       <c r="D103" s="62"/>
       <c r="E103" s="62"/>
       <c r="I103" s="39"/>
-      <c r="J103" s="86" t="s">
+      <c r="J103" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K103" s="86"/>
-      <c r="L103" s="86"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="76"/>
     </row>
     <row r="104" spans="1:12" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="C104" s="62" t="s">
@@ -9900,16 +9900,16 @@
       </c>
       <c r="D104" s="62"/>
       <c r="E104" s="62"/>
-      <c r="F104" s="86" t="s">
+      <c r="F104" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86"/>
-      <c r="J104" s="86" t="s">
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="J104" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="86"/>
-      <c r="L104" s="86"/>
+      <c r="K104" s="76"/>
+      <c r="L104" s="76"/>
     </row>
     <row r="105" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="C105" s="62" t="s">
@@ -9917,11 +9917,11 @@
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="38"/>
-      <c r="F105" s="86" t="s">
+      <c r="F105" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="86"/>
-      <c r="H105" s="86"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
       <c r="I105" s="27"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
@@ -10222,12 +10222,12 @@
     <sortCondition ref="C22:C49"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J103:L103"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D9"/>
@@ -10236,15 +10236,16 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
-  <pageMargins left="0.71" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.21" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>